--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail9 Features.xlsx
@@ -4116,7 +4116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4127,29 +4127,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4170,115 +4168,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4295,72 +4283,66 @@
         <v>7.201764623706848e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.01146602657006296</v>
+        <v>3.997021900003558e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.1136921762719849</v>
+        <v>1.580641326856915e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.997021900003558e-07</v>
+        <v>-0.09230095230912595</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.580641326856915e-06</v>
+        <v>0.2284088841801734</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.09230095230912595</v>
+        <v>0.06052047398672921</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2284088841801734</v>
+        <v>1.754512328566088</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06052047398672921</v>
+        <v>1.3442498159058</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.78980965201792</v>
+        <v>24.80117477837899</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.3442498159058</v>
+        <v>3.968646035313427e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>24.80117477837899</v>
+        <v>2729040630.235065</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.968646035313427e-16</v>
+        <v>3.999360309236703e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>2729040630.235065</v>
+        <v>2955.713729067444</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.999360309236703e-08</v>
+        <v>1.53344259676207e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>2955.713729067444</v>
+        <v>10.08696994194322</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>1.53344259676207e-05</v>
+        <v>1.188732958929696</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.08696994194322</v>
+        <v>0.001560231265568196</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.188732958929696</v>
+        <v>8.101703143246331</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.001560231265568196</v>
+        <v>0.9624714198816842</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.101703143246331</v>
+        <v>0.8368870244192727</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9624714198816842</v>
+        <v>82</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.8368870244192727</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>9.246991041580166</v>
       </c>
     </row>
@@ -4375,72 +4357,66 @@
         <v>6.843920051832238e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.383050266498174</v>
+        <v>3.003395785774741e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.8345127946782176</v>
+        <v>1.574883175667135e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.003395785774741e-07</v>
+        <v>-0.07280704854739126</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.574883175667135e-06</v>
+        <v>0.1621786117527113</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.07280704854739126</v>
+        <v>0.03150967372292782</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1621786117527113</v>
+        <v>1.753588577141356</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03150967372292782</v>
+        <v>1.339733111983383</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.78677400890537</v>
+        <v>24.29494486719766</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.339733111983383</v>
+        <v>4.135757213484607e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>24.29494486719766</v>
+        <v>2617110258.095565</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.135757213484607e-16</v>
+        <v>4.169790811321295e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>2617110258.095565</v>
+        <v>2832.690169267792</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.169790811321295e-08</v>
+        <v>2.651155541151104e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>2832.690169267792</v>
+        <v>9.770877968264779</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>2.651155541151104e-05</v>
+        <v>1.428264013672506</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.770877968264779</v>
+        <v>0.002531059686961325</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.428264013672506</v>
+        <v>7.804947141225582</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.002531059686961325</v>
+        <v>0.9616531087198581</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>7.804947141225582</v>
+        <v>0.7891357820800552</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9616531087198581</v>
+        <v>59</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.7891357820800552</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>8.352039319967561</v>
       </c>
     </row>
@@ -4455,72 +4431,66 @@
         <v>6.801610000868021e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.4465297893680992</v>
+        <v>2.32627386229448e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.005664674548291</v>
+        <v>1.570503407997791e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.32627386229448e-07</v>
+        <v>-0.05681800706104267</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.570503407997791e-06</v>
+        <v>0.1093770282216271</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.05681800706104267</v>
+        <v>0.0151508900606856</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1093770282216271</v>
+        <v>1.752999059554474</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0151508900606856</v>
+        <v>1.334964204768868</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.784865528567258</v>
+        <v>24.08639788124681</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.334964204768868</v>
+        <v>4.207684414178171e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>24.08639788124681</v>
+        <v>2571717532.240206</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.207684414178171e-16</v>
+        <v>4.243218584900333e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>2571717532.240206</v>
+        <v>2782.84931244243</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.243218584900333e-08</v>
+        <v>5.237354566664386e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>2782.84931244243</v>
+        <v>9.68202057294185</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>5.237354566664386e-05</v>
+        <v>1.59598605187008</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.68202057294185</v>
+        <v>0.00490957590296093</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.59598605187008</v>
+        <v>7.044643517176098</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.00490957590296093</v>
+        <v>0.9617895458362919</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>7.044643517176098</v>
+        <v>0.8871641325403613</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9617895458362919</v>
+        <v>30</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.8871641325403613</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>6.721784708859194</v>
       </c>
     </row>
@@ -4535,72 +4505,66 @@
         <v>6.891765158020215e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.4085572511985073</v>
+        <v>2.159756024139428e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.071994455052751</v>
+        <v>1.56701623505568e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.159756024139428e-07</v>
+        <v>-0.04613602055623638</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.56701623505568e-06</v>
+        <v>0.07895603606112291</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04613602055623638</v>
+        <v>0.008349726297030244</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.07895603606112291</v>
+        <v>1.748126402180199</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.008349726297030244</v>
+        <v>1.328702328107052</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.781441622853613</v>
+        <v>24.0698970517611</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.328702328107052</v>
+        <v>4.213455446887446e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>24.0698970517611</v>
+        <v>2567332718.32012</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.213455446887446e-16</v>
+        <v>4.250080778705982e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2567332718.32012</v>
+        <v>2777.171610855324</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.250080778705982e-08</v>
+        <v>4.158664455779681e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>2777.171610855324</v>
+        <v>9.587782149923196</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>4.158664455779681e-05</v>
+        <v>1.335423360440837</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.587782149923196</v>
+        <v>0.003822875862071339</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.335423360440837</v>
+        <v>7.023891321430003</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.003822875862071339</v>
+        <v>0.9614208231103211</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>7.023891321430003</v>
+        <v>0.9037108103350464</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9614208231103211</v>
+        <v>22</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9037108103350464</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>6.641579967686704</v>
       </c>
     </row>
@@ -4615,72 +4579,66 @@
         <v>7.0252082633837e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.3551707140273274</v>
+        <v>2.171998007465604e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.140390399329864</v>
+        <v>1.564033379317738e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.171998007465604e-07</v>
+        <v>-0.04037383600295626</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.564033379317738e-06</v>
+        <v>0.06876882312511684</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04037383600295626</v>
+        <v>0.006356990057432823</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.06876882312511684</v>
+        <v>1.744286443324456</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.006356990057432823</v>
+        <v>1.324547117540638</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.777688827468292</v>
+        <v>24.13777817418301</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.324547117540638</v>
+        <v>4.189790309737484e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>24.13777817418301</v>
+        <v>2580437076.222805</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.189790309737484e-16</v>
+        <v>4.227791586139767e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>2580437076.222805</v>
+        <v>2789.837030798609</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.227791586139767e-08</v>
+        <v>3.199153892489915e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>2789.837030798609</v>
+        <v>10.11834643064918</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>3.199153892489915e-05</v>
+        <v>1.156373425988348</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.11834643064918</v>
+        <v>0.003275323650924569</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.156373425988348</v>
+        <v>7.226722138385762</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.003275323650924569</v>
+        <v>0.9622717280708442</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>7.226722138385762</v>
+        <v>0.8264347534211122</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9622717280708442</v>
+        <v>33</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.8264347534211122</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>7.298091585844734</v>
       </c>
     </row>
@@ -4695,72 +4653,66 @@
         <v>7.165456553807291e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.3021722233822691</v>
+        <v>2.180967251279417e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.207504981039222</v>
+        <v>1.561268299644278e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.180967251279417e-07</v>
+        <v>-0.03789670553215554</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.561268299644278e-06</v>
+        <v>0.06666181466145567</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03789670553215554</v>
+        <v>0.00587987394857647</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.06666181466145567</v>
+        <v>1.737943123388019</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.00587987394857647</v>
+        <v>1.317058637773603</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.773340945039384</v>
+        <v>24.22680467717242</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.317058637773603</v>
+        <v>4.159054350411198e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>24.22680467717242</v>
+        <v>2598802613.502077</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.159054350411198e-16</v>
+        <v>4.197719237120685e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>2598802613.502077</v>
+        <v>2808.931739503788</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.197719237120685e-08</v>
+        <v>3.081248074011546e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>2808.931739503788</v>
+        <v>10.03837663877376</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>3.081248074011546e-05</v>
+        <v>1.172996750672038</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.03837663877376</v>
+        <v>0.003104943042459728</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.172996750672038</v>
+        <v>7.313275840109918</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.003104943042459728</v>
+        <v>0.9621003439710772</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>7.313275840109918</v>
+        <v>0.901010682721518</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9621003439710772</v>
+        <v>33</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.901010682721518</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>7.464741853127165</v>
       </c>
     </row>
@@ -5137,7 +5089,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.429143670370298</v>
+        <v>1.448949877665942</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.553150513990774</v>
@@ -5226,7 +5178,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.43628223487332</v>
+        <v>1.458185098866653</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.582698046002722</v>
@@ -5315,7 +5267,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.460067927137594</v>
+        <v>1.482205213717178</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.627585644136936</v>
@@ -5404,7 +5356,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.437466186632806</v>
+        <v>1.464053321606459</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.534535067241635</v>
@@ -5493,7 +5445,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.393436513197471</v>
+        <v>1.42262369005593</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.384598291697168</v>
@@ -5582,7 +5534,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.373866737968843</v>
+        <v>1.39979712984408</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.372263959753817</v>
@@ -5671,7 +5623,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.387046514262801</v>
+        <v>1.413789430237045</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.194520903906862</v>
@@ -5760,7 +5712,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.382692187679624</v>
+        <v>1.408460606690365</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.421628803269502</v>
@@ -5849,7 +5801,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.377834362359261</v>
+        <v>1.401733878543468</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.389707978993336</v>
@@ -5938,7 +5890,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.368650658501729</v>
+        <v>1.389058848354788</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.431076618996262</v>
@@ -6027,7 +5979,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.36766353266314</v>
+        <v>1.390879572017834</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.347059843296188</v>
@@ -6116,7 +6068,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.370212970598388</v>
+        <v>1.394885289151394</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.546321309843186</v>
@@ -6205,7 +6157,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.376413303082184</v>
+        <v>1.402744193414864</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.357300593236434</v>
@@ -6294,7 +6246,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.353925929094391</v>
+        <v>1.380207693070681</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.437346685994183</v>
@@ -6383,7 +6335,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.338080416589473</v>
+        <v>1.364500471089399</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.303264820389436</v>
@@ -6472,7 +6424,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.311556213705853</v>
+        <v>1.33464950782823</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.324536928123678</v>
@@ -6561,7 +6513,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.316810261415886</v>
+        <v>1.3394749033091</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.426883791530229</v>
@@ -6650,7 +6602,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.318050579448744</v>
+        <v>1.340663838382069</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.376992885705439</v>
@@ -6739,7 +6691,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.308591186550782</v>
+        <v>1.327220390574132</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.515750346383387</v>
@@ -6828,7 +6780,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.338073209857439</v>
+        <v>1.356680831446234</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.109138655380432</v>
@@ -6917,7 +6869,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.344386933145965</v>
+        <v>1.362203622462614</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.316484390525231</v>
@@ -7006,7 +6958,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.330607820884106</v>
+        <v>1.347434894633074</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.363973157571572</v>
@@ -7095,7 +7047,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.353328966503413</v>
+        <v>1.37177486648946</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.301957289735898</v>
@@ -7184,7 +7136,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.337350954419857</v>
+        <v>1.356070792869531</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.364181691870133</v>
@@ -7273,7 +7225,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.343955782531153</v>
+        <v>1.360804339169033</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.20073479409383</v>
@@ -7362,7 +7314,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.351437436149054</v>
+        <v>1.367230325458817</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.180403111401608</v>
@@ -7451,7 +7403,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.35364736530407</v>
+        <v>1.367921739956575</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.4577561060808</v>
@@ -7540,7 +7492,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.36853300888854</v>
+        <v>1.384805720485638</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.298237483619762</v>
@@ -7629,7 +7581,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.397708544542365</v>
+        <v>1.411997160636841</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.440272796853379</v>
@@ -7718,7 +7670,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.414632328508005</v>
+        <v>1.428590361357173</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.11618523229517</v>
@@ -7807,7 +7759,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.478643447540848</v>
+        <v>1.496849583688691</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.628354197100943</v>
@@ -7896,7 +7848,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.504751962528726</v>
+        <v>1.527728174091197</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.647115564793987</v>
@@ -7985,7 +7937,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.534848434350577</v>
+        <v>1.557742342138997</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.45905432828323</v>
@@ -8074,7 +8026,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.593368163139881</v>
+        <v>1.617710523790221</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.529307381945966</v>
@@ -8163,7 +8115,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.60873169054371</v>
+        <v>1.635970826263257</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.540428374234982</v>
@@ -8252,7 +8204,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.661254209457766</v>
+        <v>1.678295999503951</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.457365964247682</v>
@@ -8341,7 +8293,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.676333633676198</v>
+        <v>1.693677574646986</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.797556285821871</v>
@@ -8430,7 +8382,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.674651196753213</v>
+        <v>1.694251276590974</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.9185565597179</v>
@@ -8519,7 +8471,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.703672107332614</v>
+        <v>1.723262389270811</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.967633739397946</v>
@@ -8608,7 +8560,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.714669266232023</v>
+        <v>1.729571336653626</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.675542371488456</v>
@@ -8697,7 +8649,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.750216066240488</v>
+        <v>1.760410704827052</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.776959279510508</v>
@@ -8786,7 +8738,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.792571784921166</v>
+        <v>1.794880815301249</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.799893727023895</v>
@@ -8875,7 +8827,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.771188780595283</v>
+        <v>1.780101126127456</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.386830370087882</v>
@@ -8964,7 +8916,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.711133133432921</v>
+        <v>1.717291401384641</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.184496036002264</v>
@@ -9053,7 +9005,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.660617940565463</v>
+        <v>1.682901726411209</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.149684637388075</v>
@@ -9142,7 +9094,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.639679365163805</v>
+        <v>1.664946287226328</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.163494833134517</v>
@@ -9231,7 +9183,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.6235025006738</v>
+        <v>1.643632815357766</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.153375901972602</v>
@@ -9320,7 +9272,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.622485044272445</v>
+        <v>1.638279599574226</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.137829534533009</v>
@@ -9409,7 +9361,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.602357013262764</v>
+        <v>1.619489263635551</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.060677162152296</v>
@@ -9498,7 +9450,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.587943903072865</v>
+        <v>1.610268661097492</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.11199685666108</v>
@@ -9587,7 +9539,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.588143391366623</v>
+        <v>1.613735743513766</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.101911449064199</v>
@@ -9873,7 +9825,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.494789436072996</v>
+        <v>1.50977661373671</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.371155669300982</v>
@@ -9962,7 +9914,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.518123901960864</v>
+        <v>1.535097189100757</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.483840590094766</v>
@@ -10051,7 +10003,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.552732944339974</v>
+        <v>1.567535105525833</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.477893759464828</v>
@@ -10140,7 +10092,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.54176028037958</v>
+        <v>1.559572366935286</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.342077290091072</v>
@@ -10229,7 +10181,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.455053509514463</v>
+        <v>1.4672085112907</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.022573620304474</v>
@@ -10318,7 +10270,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.385430004508424</v>
+        <v>1.386138504228225</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.980815389138015</v>
@@ -10407,7 +10359,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.396006175439294</v>
+        <v>1.394426561942409</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.861607983860415</v>
@@ -10496,7 +10448,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.422340060259143</v>
+        <v>1.417158704967949</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.174326181028706</v>
@@ -10585,7 +10537,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.435679523849001</v>
+        <v>1.428230291341418</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.200639656272249</v>
@@ -10674,7 +10626,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.441588946564293</v>
+        <v>1.429581493470975</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.281597578691766</v>
@@ -10763,7 +10715,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.433659928887971</v>
+        <v>1.425848062844482</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.263911724341666</v>
@@ -10852,7 +10804,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.395737611332024</v>
+        <v>1.388020973791801</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.127113264973583</v>
@@ -10941,7 +10893,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.380732546191373</v>
+        <v>1.379057433256428</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.237799098406135</v>
@@ -11030,7 +10982,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.373094843420928</v>
+        <v>1.369401887598597</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.113251570943637</v>
@@ -11119,7 +11071,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.363295113401774</v>
+        <v>1.364629876243079</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.233957308612521</v>
@@ -11208,7 +11160,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.358172046716156</v>
+        <v>1.361122770861209</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.224458488250948</v>
@@ -11297,7 +11249,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.370442229180928</v>
+        <v>1.378107750012895</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.284281321203007</v>
@@ -11386,7 +11338,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.363985622183237</v>
+        <v>1.365330180577047</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.237780517989232</v>
@@ -11475,7 +11427,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.370750920729781</v>
+        <v>1.370330241348771</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.279479224286543</v>
@@ -11564,7 +11516,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.390308626701132</v>
+        <v>1.389503976589484</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.230667835785284</v>
@@ -11653,7 +11605,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.407394054851268</v>
+        <v>1.407717282041818</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.284938465857225</v>
@@ -11742,7 +11694,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.414237105346116</v>
+        <v>1.415437492100458</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.342017327685429</v>
@@ -11831,7 +11783,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.429358707424215</v>
+        <v>1.435095310998167</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.351334245957098</v>
@@ -11920,7 +11872,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.436177431481394</v>
+        <v>1.444885118380857</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.336016392943816</v>
@@ -12009,7 +11961,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.434000712336486</v>
+        <v>1.439842982287171</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.370739226805386</v>
@@ -12098,7 +12050,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.429324008993461</v>
+        <v>1.428586759344007</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.355522640296214</v>
@@ -12187,7 +12139,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.44811529994906</v>
+        <v>1.442532829128917</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.196639188020107</v>
@@ -12276,7 +12228,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.467262719757527</v>
+        <v>1.465274150797361</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.260858152791717</v>
@@ -12365,7 +12317,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.501293308447056</v>
+        <v>1.495843603934145</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.383970857050625</v>
@@ -12454,7 +12406,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.513652104925666</v>
+        <v>1.509923318214161</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.406112934093353</v>
@@ -12543,7 +12495,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.543018812720837</v>
+        <v>1.538429130018209</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.463791671856123</v>
@@ -12632,7 +12584,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.53695807982208</v>
+        <v>1.529737135969471</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.388667028447954</v>
@@ -12721,7 +12673,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.56560852078913</v>
+        <v>1.562053500937364</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.485758683259435</v>
@@ -12810,7 +12762,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.516135625646828</v>
+        <v>1.518809484853999</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.152844981387502</v>
@@ -12899,7 +12851,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.50158768067199</v>
+        <v>1.513468684584595</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.248443362076735</v>
@@ -12988,7 +12940,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.509214901975866</v>
+        <v>1.526141856528249</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.184259412244154</v>
@@ -13077,7 +13029,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.459174221959065</v>
+        <v>1.474686320930908</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.33607669677628</v>
@@ -13166,7 +13118,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.42063692499696</v>
+        <v>1.442844282015671</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.333467473788457</v>
@@ -13255,7 +13207,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.414884295002073</v>
+        <v>1.439870873836147</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.34080560332478</v>
@@ -13344,7 +13296,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.392141132532923</v>
+        <v>1.4251699945173</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.361647333356185</v>
@@ -13433,7 +13385,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.427847156417234</v>
+        <v>1.467260684569143</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.332946317898769</v>
@@ -13522,7 +13474,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.449550741762526</v>
+        <v>1.494992746775576</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.468498688457661</v>
@@ -13611,7 +13563,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.431795493498869</v>
+        <v>1.474670803450719</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.388936017264857</v>
@@ -13700,7 +13652,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.454764721378738</v>
+        <v>1.46608062371156</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.506902498545523</v>
@@ -13789,7 +13741,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.412107803594204</v>
+        <v>1.445062177647861</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.505327013549919</v>
@@ -13878,7 +13830,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.403239471913457</v>
+        <v>1.437752343848205</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.495663247993103</v>
@@ -13967,7 +13919,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.400690788109323</v>
+        <v>1.43442168523617</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.498983375995365</v>
@@ -14056,7 +14008,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.411189503068565</v>
+        <v>1.444319880327965</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.476638061156507</v>
@@ -14145,7 +14097,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.430757240762345</v>
+        <v>1.464281125017499</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.481871209122439</v>
@@ -14234,7 +14186,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.419679629071957</v>
+        <v>1.457650411015522</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.485455051831326</v>
@@ -14323,7 +14275,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.424367667226704</v>
+        <v>1.460103156463514</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.486807515088797</v>
@@ -14609,7 +14561,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.678007774738029</v>
+        <v>1.675061838091028</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.874384987227395</v>
@@ -14698,7 +14650,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.689398287875362</v>
+        <v>1.686479230207129</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.851435422800064</v>
@@ -14787,7 +14739,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.705148635672503</v>
+        <v>1.693491085704215</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.887862411386965</v>
@@ -14876,7 +14828,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.704457083921834</v>
+        <v>1.693982169508397</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.668276054755684</v>
@@ -14965,7 +14917,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.675664740433325</v>
+        <v>1.676562372493406</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.289491056398099</v>
@@ -15054,7 +15006,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.637188289585826</v>
+        <v>1.631374364412882</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.772479857475503</v>
@@ -15143,7 +15095,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.641939448115445</v>
+        <v>1.632282451356326</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.608605347002182</v>
@@ -15232,7 +15184,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.661182959035701</v>
+        <v>1.652705683422721</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.028528512320665</v>
@@ -15321,7 +15273,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.661233095338986</v>
+        <v>1.652675085116083</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.163817956143765</v>
@@ -15410,7 +15362,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.651462844261446</v>
+        <v>1.639927787447744</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.972465031422784</v>
@@ -15499,7 +15451,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.664581145997849</v>
+        <v>1.653393163805204</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.094560324288596</v>
@@ -15588,7 +15540,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.660581603439409</v>
+        <v>1.652566294786907</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.187952682625998</v>
@@ -15677,7 +15629,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.656819401971916</v>
+        <v>1.648844063729987</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.133629857188593</v>
@@ -15766,7 +15718,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.632522046598874</v>
+        <v>1.633545693040842</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.117832674231213</v>
@@ -15855,7 +15807,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.620327034666648</v>
+        <v>1.621766430877095</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.794296853061662</v>
@@ -15944,7 +15896,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.606999874890661</v>
+        <v>1.610038411188012</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.957574835741168</v>
@@ -16033,7 +15985,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.609617748161871</v>
+        <v>1.612291368257735</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.807014082150285</v>
@@ -16122,7 +16074,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.617794171275055</v>
+        <v>1.624636753278486</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.923407259457954</v>
@@ -16211,7 +16163,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.60980050212646</v>
+        <v>1.6109027482149</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.919436714841091</v>
@@ -16300,7 +16252,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.633939761854735</v>
+        <v>1.629532195491309</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.723729216190419</v>
@@ -16389,7 +16341,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.642607862574296</v>
+        <v>1.638701311424146</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.941753475553964</v>
@@ -16478,7 +16430,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.639981242462284</v>
+        <v>1.637871959064854</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.906781337738019</v>
@@ -16567,7 +16519,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.653193558535627</v>
+        <v>1.647200580743225</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.934902253364756</v>
@@ -16656,7 +16608,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.65135993862768</v>
+        <v>1.645104969541906</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.917883530927753</v>
@@ -16745,7 +16697,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.643611303589917</v>
+        <v>1.631763150269752</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.919210661622815</v>
@@ -16834,7 +16786,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.624843961079169</v>
+        <v>1.618544151549513</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.957421193536717</v>
@@ -16923,7 +16875,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.651911317006466</v>
+        <v>1.642035993065217</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.779703058284793</v>
@@ -17012,7 +16964,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.673219200125987</v>
+        <v>1.65855149834798</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.688241157973029</v>
@@ -17101,7 +17053,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.709090976671904</v>
+        <v>1.686057908849775</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.877635321828364</v>
@@ -17190,7 +17142,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.726814207396659</v>
+        <v>1.704830380975603</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.178208629072564</v>
@@ -17279,7 +17231,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.765165834166173</v>
+        <v>1.741019793403024</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.406187297644513</v>
@@ -17368,7 +17320,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.76949096586919</v>
+        <v>1.750464166467767</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.41908659174324</v>
@@ -17457,7 +17409,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.787168200053439</v>
+        <v>1.766003631930113</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.186471402526745</v>
@@ -17546,7 +17498,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.766454344559413</v>
+        <v>1.753189349054937</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.836260987918444</v>
@@ -17635,7 +17587,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.76577660434585</v>
+        <v>1.755948219143484</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.64194361494878</v>
@@ -17724,7 +17676,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.765752900672499</v>
+        <v>1.753776180687523</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.831944829299812</v>
@@ -17813,7 +17765,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.755200055821751</v>
+        <v>1.740828290252186</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.756168972633096</v>
@@ -17902,7 +17854,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.734762786944106</v>
+        <v>1.72436632782789</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.032244350545068</v>
@@ -17991,7 +17943,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.733174499779582</v>
+        <v>1.726035767773912</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.895203212661708</v>
@@ -18080,7 +18032,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.732681465274194</v>
+        <v>1.7263119826665</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.888866788211413</v>
@@ -18169,7 +18121,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.765420852613474</v>
+        <v>1.748871510441527</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.910353243836558</v>
@@ -18258,7 +18210,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.767789877202422</v>
+        <v>1.746589272705914</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.974619357050889</v>
@@ -18347,7 +18299,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.760172089278183</v>
+        <v>1.742624702002443</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.84170383456487</v>
@@ -18436,7 +18388,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.704845161387265</v>
+        <v>1.673830340421151</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.900344741206306</v>
@@ -18525,7 +18477,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.615039734881413</v>
+        <v>1.622279472749384</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.919414403746173</v>
@@ -18614,7 +18566,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.605567941084918</v>
+        <v>1.608268762909228</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.885848870366482</v>
@@ -18703,7 +18655,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.598998409873456</v>
+        <v>1.596430975310008</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.884652164545379</v>
@@ -18792,7 +18744,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.594805977796933</v>
+        <v>1.588698118282267</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.889904441714679</v>
@@ -18881,7 +18833,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.610031789444834</v>
+        <v>1.598371184098091</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.85428554381617</v>
@@ -18970,7 +18922,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.597563147444961</v>
+        <v>1.587400363160552</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.862370098036165</v>
@@ -19059,7 +19011,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.602248152764666</v>
+        <v>1.591143467733018</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.878404158672529</v>
@@ -19345,7 +19297,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.638914399408938</v>
+        <v>1.662973897530593</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.193605965104837</v>
@@ -19434,7 +19386,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.655313542988791</v>
+        <v>1.675094363534809</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.921066600738155</v>
@@ -19523,7 +19475,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.678313512971968</v>
+        <v>1.690494695474991</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.93073172341889</v>
@@ -19612,7 +19564,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.69492028443329</v>
+        <v>1.70931067610634</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.728571712348843</v>
@@ -19701,7 +19653,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.708066340635259</v>
+        <v>1.71571159535575</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.233955451718179</v>
@@ -19790,7 +19742,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.707956790921685</v>
+        <v>1.71686218237205</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.733789725244857</v>
@@ -19879,7 +19831,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.714613059041959</v>
+        <v>1.725922885469394</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.768032523954026</v>
@@ -19968,7 +19920,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.727874147534288</v>
+        <v>1.736506760618223</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.255592614352743</v>
@@ -20057,7 +20009,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.744226209559669</v>
+        <v>1.747491632363097</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.211459919670063</v>
@@ -20146,7 +20098,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.741920172229514</v>
+        <v>1.746590554904582</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.141247078165971</v>
@@ -20235,7 +20187,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.740808729432513</v>
+        <v>1.745633221659022</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.570562538156763</v>
@@ -20324,7 +20276,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.72497315818164</v>
+        <v>1.731185851210375</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.418799033758607</v>
@@ -20413,7 +20365,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.730277345770785</v>
+        <v>1.732882444085772</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.32133012771414</v>
@@ -20502,7 +20454,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.733319370011893</v>
+        <v>1.727874779382249</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.988704102875247</v>
@@ -20591,7 +20543,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.732397603246683</v>
+        <v>1.726396042296169</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.236340655410985</v>
@@ -20680,7 +20632,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.735269137161953</v>
+        <v>1.724057533691183</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.298798616753884</v>
@@ -20769,7 +20721,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.724454509636458</v>
+        <v>1.709148811844986</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.936236877466872</v>
@@ -20858,7 +20810,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.719817400098312</v>
+        <v>1.704801367400992</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.244682629014818</v>
@@ -20947,7 +20899,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.699228203318156</v>
+        <v>1.681282916747987</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.197567112459896</v>
@@ -21036,7 +20988,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.693413499026816</v>
+        <v>1.676124382766877</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.214999459141988</v>
@@ -21125,7 +21077,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.683126631056952</v>
+        <v>1.664035617763022</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.938856088901192</v>
@@ -21214,7 +21166,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.685717691503249</v>
+        <v>1.661821721386741</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.116795564624403</v>
@@ -21303,7 +21255,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.686049224154553</v>
+        <v>1.657989258849928</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.102723645968703</v>
@@ -21392,7 +21344,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.677713380531631</v>
+        <v>1.65107224100148</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.99173720254755</v>
@@ -21481,7 +21433,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.679635587061166</v>
+        <v>1.641931759687838</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.719902856932696</v>
@@ -21570,7 +21522,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.664632640162558</v>
+        <v>1.625337569427717</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.000811789948409</v>
@@ -21659,7 +21611,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.677120340136938</v>
+        <v>1.631196969710125</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.027531544449732</v>
@@ -21748,7 +21700,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.671926198938474</v>
+        <v>1.629209379889205</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.593614078040453</v>
@@ -21837,7 +21789,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.67442219272586</v>
+        <v>1.635699910978812</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.042198776855316</v>
@@ -21926,7 +21878,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.688797764681946</v>
+        <v>1.652894673331977</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.931273239927936</v>
@@ -22015,7 +21967,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.704236001378566</v>
+        <v>1.670295040507069</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.089065788766796</v>
@@ -22104,7 +22056,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.714668333440562</v>
+        <v>1.688595656564464</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.381052267952072</v>
@@ -22193,7 +22145,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.739850859693</v>
+        <v>1.70752038725929</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.969490985785745</v>
@@ -22282,7 +22234,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.757593865826399</v>
+        <v>1.720596461575056</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.823940033977629</v>
@@ -22371,7 +22323,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.756917290690054</v>
+        <v>1.722678562470507</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.800120550249988</v>
@@ -22460,7 +22412,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.752056074852086</v>
+        <v>1.714417656326962</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.201041699158603</v>
@@ -22549,7 +22501,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.728693873589453</v>
+        <v>1.700441113228331</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.044563645654739</v>
@@ -22638,7 +22590,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.691597495142114</v>
+        <v>1.675190490093086</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.10646463098117</v>
@@ -22727,7 +22679,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.673046718708617</v>
+        <v>1.660092344049384</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.110975947762925</v>
@@ -22816,7 +22768,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.660045790082058</v>
+        <v>1.655902407812835</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.922731639882842</v>
@@ -22905,7 +22857,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.672802542252803</v>
+        <v>1.670571081875856</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.82865321148064</v>
@@ -22994,7 +22946,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.684491866127724</v>
+        <v>1.690057141512977</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.846092011565846</v>
@@ -23083,7 +23035,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.664983097004048</v>
+        <v>1.669520144735855</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.06402577475174</v>
@@ -23172,7 +23124,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.636643286614079</v>
+        <v>1.624521953557268</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.968914774285237</v>
@@ -23261,7 +23213,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.580820930692383</v>
+        <v>1.591630411120168</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.93853865424328</v>
@@ -23350,7 +23302,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.571997982201642</v>
+        <v>1.582358681946653</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.940593326055606</v>
@@ -23439,7 +23391,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.556676925824674</v>
+        <v>1.565373408806208</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.924351790098389</v>
@@ -23528,7 +23480,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.54353931472265</v>
+        <v>1.558983515368083</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.92453742223789</v>
@@ -23617,7 +23569,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.536640809003773</v>
+        <v>1.556196043670565</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.897970111162578</v>
@@ -23706,7 +23658,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.512145510289246</v>
+        <v>1.53205043660026</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.898047698630407</v>
@@ -23795,7 +23747,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.529954349529772</v>
+        <v>1.549109756704549</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.84983072914644</v>
@@ -24081,7 +24033,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.28117913853227</v>
+        <v>1.279922294542253</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.218385885252019</v>
@@ -24170,7 +24122,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.305503961421263</v>
+        <v>1.305929423655443</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.108876344944304</v>
@@ -24259,7 +24211,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.340943963551059</v>
+        <v>1.337921214950162</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.310933747729877</v>
@@ -24348,7 +24300,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.338337862952041</v>
+        <v>1.33387038584156</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.211534824930868</v>
@@ -24437,7 +24389,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.284309572340406</v>
+        <v>1.270583920454345</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.206147244784121</v>
@@ -24526,7 +24478,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.269518980844708</v>
+        <v>1.258329871158733</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.212193737098324</v>
@@ -24615,7 +24567,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.272870239580685</v>
+        <v>1.263930523647423</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.149479989440318</v>
@@ -24704,7 +24656,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.27470597604387</v>
+        <v>1.265385188511025</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.180769024472825</v>
@@ -24793,7 +24745,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.270927362730472</v>
+        <v>1.261525533778777</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.177877169689102</v>
@@ -24882,7 +24834,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.275024670358212</v>
+        <v>1.262501964240199</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.176007098965193</v>
@@ -24971,7 +24923,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.279447412150406</v>
+        <v>1.272083840704071</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.168500363207655</v>
@@ -25060,7 +25012,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.280817679284987</v>
+        <v>1.281047920102088</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.940026623280354</v>
@@ -25149,7 +25101,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.2453432788367</v>
+        <v>1.245698721194843</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.090458700382196</v>
@@ -25238,7 +25190,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.240834963870478</v>
+        <v>1.239002852929174</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.069477409276007</v>
@@ -25327,7 +25279,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.226547904625034</v>
+        <v>1.223108076322733</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.132426723232078</v>
@@ -25416,7 +25368,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.221502762224054</v>
+        <v>1.216789658800016</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.156989617063454</v>
@@ -25505,7 +25457,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.231542412907421</v>
+        <v>1.227295658352204</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.154122518469988</v>
@@ -25594,7 +25546,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.234307837524405</v>
+        <v>1.224564521745281</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.191125154975774</v>
@@ -25683,7 +25635,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.227440325091485</v>
+        <v>1.216558403366267</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.092527800210627</v>
@@ -25772,7 +25724,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.236210816553728</v>
+        <v>1.225256133659882</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.153525086553616</v>
@@ -25861,7 +25813,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.230199765770239</v>
+        <v>1.217964992465889</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.162582266601517</v>
@@ -25950,7 +25902,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.223497079016594</v>
+        <v>1.212032711389539</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.093359581366518</v>
@@ -26039,7 +25991,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.232403506648857</v>
+        <v>1.22235777858767</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.176736382434494</v>
@@ -26128,7 +26080,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.224597912154862</v>
+        <v>1.21361954978089</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.158190544660256</v>
@@ -26217,7 +26169,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.219611139718341</v>
+        <v>1.206896037970127</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.136710302462326</v>
@@ -26306,7 +26258,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.224899649163607</v>
+        <v>1.208198846775337</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.175064062211344</v>
@@ -26395,7 +26347,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.224003060568545</v>
+        <v>1.201535539317983</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.80786791114256</v>
@@ -26484,7 +26436,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.224162717874013</v>
+        <v>1.211022445958803</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.105253919998276</v>
@@ -26573,7 +26525,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.237675636276085</v>
+        <v>1.223298981520954</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.054746425943358</v>
@@ -26662,7 +26614,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.243658149210819</v>
+        <v>1.23079165779932</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.911268380538896</v>
@@ -26751,7 +26703,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.252128993175536</v>
+        <v>1.244881117244605</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.061359657742987</v>
@@ -26840,7 +26792,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.24422188757186</v>
+        <v>1.236387041784148</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.077522417724012</v>
@@ -26929,7 +26881,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.244463905322867</v>
+        <v>1.237256370999188</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.958675431183567</v>
@@ -27018,7 +26970,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.259158950372014</v>
+        <v>1.262772761629998</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.986644597179413</v>
@@ -27107,7 +27059,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.265874284853199</v>
+        <v>1.270638913832472</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.957633515822039</v>
@@ -27196,7 +27148,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.308285636072592</v>
+        <v>1.312573949591228</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.851260573240094</v>
@@ -27285,7 +27237,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.310517660603677</v>
+        <v>1.319080515361487</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.061753349772493</v>
@@ -27374,7 +27326,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.283694512809662</v>
+        <v>1.289985707928484</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.103731935785112</v>
@@ -27463,7 +27415,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.298416749609363</v>
+        <v>1.304936992046926</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.100955521072066</v>
@@ -27552,7 +27504,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.297789524845097</v>
+        <v>1.301771800688316</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.074406831490763</v>
@@ -27641,7 +27593,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.319687724986546</v>
+        <v>1.331803250135106</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.109496231119838</v>
@@ -27730,7 +27682,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.365844552853965</v>
+        <v>1.379853725559786</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.979264707571867</v>
@@ -27819,7 +27771,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.348902675896192</v>
+        <v>1.361084691808284</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.099245291662789</v>
@@ -27908,7 +27860,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.342687270358014</v>
+        <v>1.344726912977256</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.99187932776825</v>
@@ -27997,7 +27949,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.332562378546962</v>
+        <v>1.346754184793414</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.955329669629831</v>
@@ -28086,7 +28038,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.334384618674571</v>
+        <v>1.349455469596136</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.897959940138005</v>
@@ -28175,7 +28127,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.340426793908087</v>
+        <v>1.355385372660809</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.94676510713668</v>
@@ -28264,7 +28216,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.359696362291067</v>
+        <v>1.373216950537623</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.919567609848831</v>
@@ -28353,7 +28305,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.359960901169533</v>
+        <v>1.372288196783114</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.958304832391768</v>
@@ -28442,7 +28394,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.34670552972831</v>
+        <v>1.360877868128932</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.965175143872969</v>
@@ -28531,7 +28483,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.355612824686243</v>
+        <v>1.367196806252164</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.989878113104762</v>
@@ -28817,7 +28769,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.710936627332419</v>
+        <v>1.736282995520182</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.352960235805113</v>
@@ -28906,7 +28858,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.728503362941271</v>
+        <v>1.754750791454785</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.219081902473453</v>
@@ -28995,7 +28947,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.753796113435821</v>
+        <v>1.775489654887697</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.391938850243841</v>
@@ -29084,7 +29036,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.737416306090216</v>
+        <v>1.763109912252177</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.162709918375461</v>
@@ -29173,7 +29125,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.725763229523174</v>
+        <v>1.756747746209798</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.392812734737784</v>
@@ -29262,7 +29214,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.722085291250618</v>
+        <v>1.75556702961641</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.176282446217236</v>
@@ -29351,7 +29303,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.734314119158683</v>
+        <v>1.767974699869775</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.311771731499096</v>
@@ -29440,7 +29392,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.730189442593066</v>
+        <v>1.763588295050669</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.479196967439073</v>
@@ -29529,7 +29481,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.729749573465313</v>
+        <v>1.761629167506147</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.124256195080975</v>
@@ -29618,7 +29570,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.722702201144839</v>
+        <v>1.753939118495026</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.1572771371193</v>
@@ -29707,7 +29659,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.724633774394903</v>
+        <v>1.759581667697539</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.170331505412388</v>
@@ -29796,7 +29748,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.736578015007526</v>
+        <v>1.767112873511514</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.618602902957756</v>
@@ -29885,7 +29837,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.74527162931324</v>
+        <v>1.774114384903537</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.980833837647679</v>
@@ -29974,7 +29926,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.736287156226216</v>
+        <v>1.763253403277323</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.112255283048699</v>
@@ -30063,7 +30015,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.714705264430817</v>
+        <v>1.740761215697058</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.027915097929617</v>
@@ -30152,7 +30104,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.684997742334244</v>
+        <v>1.713391217179825</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.210467081200251</v>
@@ -30241,7 +30193,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.678342811244046</v>
+        <v>1.697579759518236</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.23537049061438</v>
@@ -30330,7 +30282,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.662114596092281</v>
+        <v>1.678312473387653</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.028266106445803</v>
@@ -30419,7 +30371,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.620212334557226</v>
+        <v>1.634483933873572</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.422884203783251</v>
@@ -30508,7 +30460,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.625353907953781</v>
+        <v>1.636357087123388</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.682534314964253</v>
@@ -30597,7 +30549,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.626146340664368</v>
+        <v>1.634228955017206</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.577123868673437</v>
@@ -30686,7 +30638,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.60704196378446</v>
+        <v>1.61259439658313</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.452022445042941</v>
@@ -30775,7 +30727,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.615862999242856</v>
+        <v>1.617162610299548</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.430090148332778</v>
@@ -30864,7 +30816,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.59678973376298</v>
+        <v>1.598857111121344</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.445484946820548</v>
@@ -30953,7 +30905,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.590928839384145</v>
+        <v>1.585525837067298</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.568721558024515</v>
@@ -31042,7 +30994,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.558394345082138</v>
+        <v>1.553027081084333</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.526499210538585</v>
@@ -31131,7 +31083,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.542006817809187</v>
+        <v>1.53848834424275</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.448182591493063</v>
@@ -31220,7 +31172,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.545554168556803</v>
+        <v>1.543844073707029</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.469300940784374</v>
@@ -31309,7 +31261,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.555494124729815</v>
+        <v>1.551243326792592</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.415879847971266</v>
@@ -31398,7 +31350,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.558000232775372</v>
+        <v>1.556617240394623</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.564615574292944</v>
@@ -31487,7 +31439,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.592021461776359</v>
+        <v>1.593107670967915</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.580607369603987</v>
@@ -31576,7 +31528,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.607292047129492</v>
+        <v>1.614037962336719</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.480871853897194</v>
@@ -31665,7 +31617,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.631752058835631</v>
+        <v>1.635005298706149</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.706950094677631</v>
@@ -31754,7 +31706,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.655232783452792</v>
+        <v>1.653434612498672</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.703246205306352</v>
@@ -31843,7 +31795,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.664933236863373</v>
+        <v>1.664665724925821</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.917639222056376</v>
@@ -31932,7 +31884,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.686295656132777</v>
+        <v>1.681828306743573</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.779165963336714</v>
@@ -32021,7 +31973,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.687662771981824</v>
+        <v>1.68659640374398</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.991919411589238</v>
@@ -32110,7 +32062,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.685461788107621</v>
+        <v>1.683975742883437</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.922032887366839</v>
@@ -32199,7 +32151,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.705586823771243</v>
+        <v>1.703289988332288</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.700029613200683</v>
@@ -32288,7 +32240,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.694312494555346</v>
+        <v>1.693781800690464</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.833432678239832</v>
@@ -32377,7 +32329,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.753684430774674</v>
+        <v>1.746407478705663</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.874112988197123</v>
@@ -32466,7 +32418,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.777554107268865</v>
+        <v>1.764267953282919</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.739469927164121</v>
@@ -32555,7 +32507,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.761208020398386</v>
+        <v>1.75051657013901</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.907089742881845</v>
@@ -32644,7 +32596,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.7321922254386</v>
+        <v>1.728491595562136</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.295946206949325</v>
@@ -32733,7 +32685,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.655687356208561</v>
+        <v>1.66962013005041</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.205860017207625</v>
@@ -32822,7 +32774,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.626473905042974</v>
+        <v>1.644287144187423</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.220185429710155</v>
@@ -32911,7 +32863,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.612310506749334</v>
+        <v>1.627078379782532</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.19083064899003</v>
@@ -33000,7 +32952,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.616871976105741</v>
+        <v>1.63303374476312</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.199374533213463</v>
@@ -33089,7 +33041,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.631401947584331</v>
+        <v>1.651228531497686</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.163604494919236</v>
@@ -33178,7 +33130,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.630411764689276</v>
+        <v>1.648647920966801</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.157674954176647</v>
@@ -33267,7 +33219,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.626794405947824</v>
+        <v>1.641578114896006</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.147865292981263</v>
